--- a/nc_formatos/retenciones/FormatoListaRetenciones.xlsx
+++ b/nc_formatos/retenciones/FormatoListaRetenciones.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PortalBizlinks\nginx\html\bizlinks\nc_formatos\retenciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos_BZ\Install\2_PortalBizlinks_Basic\Source\nginx\html\bizlinks\nc_formatos\retenciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,31 +41,19 @@
     <t>Fecha del Reporte:</t>
   </si>
   <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Tipo Doc.</t>
-  </si>
-  <si>
     <t>Cliente:</t>
   </si>
   <si>
     <t>Serie-Numero</t>
   </si>
   <si>
-    <t>Moneda</t>
-  </si>
-  <si>
-    <t>Imp. Total</t>
-  </si>
-  <si>
     <t>Fec.Emision</t>
   </si>
   <si>
     <t>Serie-Numero:</t>
   </si>
   <si>
-    <t>Estado Doc.</t>
+    <t>LISTA DE COMPROBANTES</t>
   </si>
   <si>
     <t>Estado Sunat</t>
@@ -77,19 +65,31 @@
     <t>Visto</t>
   </si>
   <si>
-    <t>Tipo Documento:</t>
-  </si>
-  <si>
     <t>Estado SUNAT:</t>
   </si>
   <si>
-    <t>LISTA DE RETENCIONES</t>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>Imp.Total a Pagar</t>
+  </si>
+  <si>
+    <t>Moneda a Pagar</t>
+  </si>
+  <si>
+    <t>Imp. Total Retenido</t>
+  </si>
+  <si>
+    <t>Moneda Retenido</t>
+  </si>
+  <si>
+    <t>Estado Docum.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,23 +497,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -549,23 +532,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -742,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K11"/>
+  <dimension ref="A2:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,11 +722,12 @@
     <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="68.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="68.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="24"/>
@@ -771,9 +738,10 @@
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="27"/>
@@ -784,9 +752,10 @@
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="29"/>
     </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="30"/>
@@ -797,9 +766,10 @@
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
     </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
@@ -812,12 +782,13 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
@@ -827,12 +798,13 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="1" t="s">
@@ -847,8 +819,9 @@
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>1</v>
@@ -858,16 +831,15 @@
         <v>3</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="F8" s="9"/>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>2</v>
@@ -876,17 +848,18 @@
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
       <c r="F9" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
       <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -897,55 +870,59 @@
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="K11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A2:B4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="C2:K3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="C2:L3"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="G7:L7"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="G9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
